--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3531105.347546336</v>
+        <v>3624633.054471088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10868463.63296455</v>
+        <v>10819839.43620937</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1357167.375808623</v>
+        <v>881630.0194036076</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7274710.891570965</v>
+        <v>7388057.328656633</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.1423250044397</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>251.1546325535072</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348608</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958322</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1543,7 +1545,7 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572803</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
         <v>49.37728379124551</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231188</v>
@@ -1622,7 +1624,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958313</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>43.98432467468587</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374609</v>
+        <v>239.3023686051986</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797649</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433856</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957281</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124541</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145466</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7587050448879</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>318.2977551524149</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>264.6891945433906</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687278</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958313</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210275</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403093</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515422</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>287.1878041424365</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.2628020374609</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633446</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800351</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996197</v>
+        <v>62.14364153070792</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797649</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433856</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404355</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957281</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124541</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145466</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128492</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575765</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870202</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052353</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179983</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704445</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335021</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7587050448879</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>318.2977551524149</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020903</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536691</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231188</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>148.3752332772576</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>15.2374885509907</v>
       </c>
       <c r="T20" t="n">
-        <v>79.6098799860421</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403093</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515422</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988203</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.2628020374609</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633446</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800351</v>
+        <v>80.77498961112288</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996197</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797649</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404355</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957281</v>
+        <v>50.80474167713564</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124541</v>
+        <v>2.402147172652967</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145466</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128492</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575765</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870202</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052353</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179983</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704445</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335021</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7587050448879</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>318.2977551524149</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536691</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348608</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687278</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958311</v>
+        <v>15.2374885509907</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210278</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403102</v>
+        <v>157.0448987217174</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515422</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988203</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.2628020374609</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633446</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800351</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996197</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797649</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433856</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404355</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957281</v>
+        <v>50.80474167713564</v>
       </c>
       <c r="I25" t="n">
-        <v>49.3772837912454</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145464</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128492</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575765</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870202</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052353</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179983</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704445</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335021</v>
+        <v>127.0947012974519</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210273</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2733,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958313</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210282</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2883,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797647</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433855</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572808</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912454</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145463</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.2977551524149</v>
@@ -3035,7 +3037,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231188</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958319</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3195,19 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797653</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043386</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572814</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124545</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145469</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3253,7 +3255,7 @@
         <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>321.956981211429</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>304.4960313189559</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>11.02704823915407</v>
+        <v>97.70631501107023</v>
       </c>
       <c r="E35" t="n">
-        <v>321.1535096202102</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>346.0991852896598</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>350.1448652014018</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>48.41090133612423</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>143.1411096875685</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>190.2183115068504</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>266.9753980180833</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>288.4641082653614</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>308.9542402264174</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.461078204002</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>119.0551197298857</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>106.4699606465762</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>87.83861256616075</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E37" t="n">
-        <v>85.65710219451756</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F37" t="n">
-        <v>84.64418757087964</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G37" t="n">
-        <v>105.2489478069766</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>83.97815446226917</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I37" t="n">
-        <v>35.57555995778649</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.15529221799572</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S37" t="n">
-        <v>128.9921648793903</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>158.7720888241176</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>225.4349777535612</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
-        <v>191.3607828717764</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>225.7461378845394</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>164.9327949369855</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.8077929000432</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>321.956981211429</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>304.4960313189559</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>293.9061811686313</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
-        <v>321.1535096202102</v>
+        <v>29.59652421025123</v>
       </c>
       <c r="F38" t="n">
-        <v>346.0991852896598</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>215.2051508671989</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>233.8309039352689</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>266.9753980180833</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>288.4641082653614</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>308.9542402264174</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.461078204002</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.0551197298857</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>106.4699606465762</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>87.83861256616075</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>85.65710219451756</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F40" t="n">
-        <v>84.64418757087964</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G40" t="n">
-        <v>105.2489478069766</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>83.97815446226917</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I40" t="n">
-        <v>35.5755599577865</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.15529221799574</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S40" t="n">
-        <v>128.9921648793903</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>158.7720888241176</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>225.4349777535612</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
-        <v>191.3607828717764</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>225.7461378845394</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>164.9327949369855</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.8077929000432</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>368.9321178300214</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>351.4711679375484</v>
+        <v>151.6464219970117</v>
       </c>
       <c r="D41" t="n">
-        <v>340.8813177872238</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>393.0743219082523</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>394.3884714739366</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>313.9505346366758</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>335.4392448839538</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>355.9293768450099</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
-        <v>372.4362148225945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0302563484782</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>127.3577820075046</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.13042883658821</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
-        <v>175.9673014979828</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>205.7472254427101</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>272.4101143721537</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V43" t="n">
-        <v>238.3359194903689</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>272.7212745031319</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>211.907931555578</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.7829295186357</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>368.9321178300216</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>351.4711679375486</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>340.881317787224</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>397.1200018199945</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.38603795471694</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
-        <v>190.1162463061613</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>237.1934481254431</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>313.950534636676</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>203.0863040598257</v>
+        <v>174.9195227880437</v>
       </c>
       <c r="X44" t="n">
-        <v>355.9293768450101</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
-        <v>372.4362148225946</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0302563484784</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>153.4450972651689</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>94.09871468891632</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>152.2240844255693</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>75.13042883658844</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>175.967301497983</v>
+        <v>142.7938887128501</v>
       </c>
       <c r="T46" t="n">
-        <v>205.7472254427103</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>238.3359194903691</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>272.7212745031321</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>211.9079315555782</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.7829295186359</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.959858232655</v>
+        <v>1570.289398767134</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1248.776514774796</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>937.9604491161188</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>937.9604491161188</v>
       </c>
       <c r="F11" t="n">
         <v>684.268901082273</v>
@@ -5039,10 +5041,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="V11" t="n">
-        <v>2820.623417021137</v>
+        <v>2883.464452545968</v>
       </c>
       <c r="W11" t="n">
-        <v>2515.304394699097</v>
+        <v>2578.145430223928</v>
       </c>
       <c r="X11" t="n">
-        <v>2189.28826938609</v>
+        <v>2252.129304910921</v>
       </c>
       <c r="Y11" t="n">
-        <v>1846.598570358352</v>
+        <v>1909.439605883183</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052937</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611977</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.849232726878</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657647</v>
@@ -5197,13 +5199,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5215,7 +5217,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5242,7 +5244,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>1707.656676566316</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130818</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806476</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391135</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5285,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5306,22 +5308,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3059.808060634124</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2776.194806238627</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2776.194806238627</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.17868092562</v>
+        <v>2288.52644793004</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897882</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052935</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.97969982546</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611977</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770411</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5437,49 +5439,49 @@
         <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328089</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337118</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843936</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016756</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702822</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107744</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105844</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179561</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.54794583286</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874599</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1316.597850733288</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C17" t="n">
-        <v>995.08496674095</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D17" t="n">
-        <v>684.2689010822729</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E17" t="n">
-        <v>684.2689010822729</v>
+        <v>852.6459125918321</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822729</v>
+        <v>536.5592736983713</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753428</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,7 +5515,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638545</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243048</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W17" t="n">
-        <v>2324.453882190081</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X17" t="n">
-        <v>1998.437756877075</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y17" t="n">
-        <v>1655.748057849337</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052935</v>
+        <v>624.6713325264084</v>
       </c>
       <c r="C19" t="n">
-        <v>637.97969982546</v>
+        <v>550.6344154946481</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611977</v>
+        <v>487.863060413125</v>
       </c>
       <c r="E19" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770411</v>
+        <v>382.8585511251147</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998334</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657646</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315233</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337093</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885665</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843936</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016756</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702822</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107744</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813345</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588245</v>
+        <v>1740.677472568994</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105844</v>
+        <v>1613.810123034667</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179561</v>
+        <v>1324.70725616031</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921748</v>
+        <v>1164.92203385057</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.54794583286</v>
+        <v>970.4041297097557</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>837.313844707885</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874599</v>
+        <v>711.4205314605015</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.338774781834</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C20" t="n">
-        <v>1446.825890789496</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.009825130818</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E20" t="n">
-        <v>797.6712054806476</v>
+        <v>852.6459125918321</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391135</v>
+        <v>536.5592736983713</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>216.3860894395144</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3245.191801421249</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
-        <v>3039.110957643159</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.497703247661</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W20" t="n">
-        <v>2450.17868092562</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X20" t="n">
-        <v>2450.17868092562</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.488981897882</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052935</v>
+        <v>529.7720666302613</v>
       </c>
       <c r="C22" t="n">
-        <v>637.97969982546</v>
+        <v>448.1811680331675</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611977</v>
+        <v>392.9637945169783</v>
       </c>
       <c r="E22" t="n">
-        <v>434.849232726878</v>
+        <v>339.9499668307319</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770411</v>
+        <v>193.0600193328215</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998334</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657646</v>
+        <v>68.93852771769147</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315257</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328088</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337117</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885668</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843939</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016759</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702822</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107744</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813345</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588245</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105844</v>
+        <v>1518.910857138519</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179561</v>
+        <v>1324.707256160309</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921748</v>
+        <v>1164.922033850569</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.54794583286</v>
+        <v>970.4041297097552</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882917</v>
+        <v>837.3138447078845</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874599</v>
+        <v>711.420531460501</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>1734.852707015896</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.59465869716</v>
+        <v>1460.789455971631</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038483</v>
+        <v>1197.423023261028</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388312</v>
+        <v>906.5340365589298</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467784</v>
+        <v>590.4473976654688</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398486</v>
+        <v>270.2742134066115</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557147</v>
+        <v>256.4690098705507</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455613</v>
+        <v>590.2883835603971</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.87963479397</v>
+        <v>1041.322596808806</v>
       </c>
       <c r="M23" t="n">
-        <v>1872.543307058811</v>
+        <v>1574.85450148073</v>
       </c>
       <c r="N23" t="n">
-        <v>2852.295579285457</v>
+        <v>2121.633318539512</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164794</v>
+        <v>2624.605789418849</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521972</v>
+        <v>3019.380155776027</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277655</v>
+        <v>3320.476879019465</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834457</v>
+        <v>3379.493945576268</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3364.10254299951</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3253.024061279878</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.89585086383</v>
+        <v>3094.392850449861</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468332</v>
+        <v>2858.229229002437</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146292</v>
+        <v>2600.35983962847</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833285</v>
+        <v>2321.793347263536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805547</v>
+        <v>2026.553281183871</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456142</v>
+        <v>942.6216169604505</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644872</v>
+        <v>768.1685876793235</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>619.2341780180723</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977805</v>
+        <v>459.9967230126168</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>313.4621650395018</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572842</v>
+        <v>177.0990648721199</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951516</v>
+        <v>86.59717050998742</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873063</v>
+        <v>161.2671484021427</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676537</v>
+        <v>399.5313473824897</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803188</v>
+        <v>766.229507695155</v>
       </c>
       <c r="M24" t="n">
-        <v>1227.062870902635</v>
+        <v>1213.505832917471</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.585914457089</v>
+        <v>1687.028876471925</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875144</v>
+        <v>2097.99015588998</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2408.489747366083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2566.131305012683</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2565.986951605198</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2436.549065098678</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2243.906064776534</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.395255896113</v>
+        <v>2015.838217910949</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1780.686109679207</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1526.448752951005</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1318.597252745472</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1110.836953980519</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502697992</v>
+        <v>713.094379336563</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899657</v>
+        <v>544.1581964086561</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257034</v>
+        <v>488.9408228924669</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913837</v>
+        <v>341.0277293100738</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415468</v>
+        <v>289.0370477083101</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643391</v>
+        <v>216.2334769791756</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302703</v>
+        <v>164.91555609318</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>67.58987891152536</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960315</v>
+        <v>112.7125113584609</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973147</v>
+        <v>316.6996943073372</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982178</v>
+        <v>633.2594927558333</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350174</v>
+        <v>977.4165383553823</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308445</v>
+        <v>1318.824915061247</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481265</v>
+        <v>1618.15451398166</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167332</v>
+        <v>1850.76201441532</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572249</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277851</v>
+        <v>1928.372310567834</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.35535505275</v>
+        <v>1736.68642639466</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.03837257035</v>
+        <v>1609.819076860333</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644067</v>
+        <v>1415.615475882123</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386253</v>
+        <v>1255.830253572383</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297366</v>
+        <v>1061.312349431569</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347422</v>
+        <v>928.2220644296984</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519654</v>
+        <v>799.8435782706561</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,31 +6226,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1116.774618643541</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2095.324921473369</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532152</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411488</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6303,28 +6305,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
         <v>549.9474938257041</v>
@@ -6373,7 +6375,7 @@
         <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,19 +6384,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
         <v>1910.743863481264</v>
@@ -6403,28 +6405,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
         <v>908.2998821519666</v>
@@ -6449,10 +6451,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398485</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,31 +6463,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386886</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>2433.836156782225</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>2259.383127501098</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>2110.448717839847</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>1951.211262834391</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>1804.676704861276</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>1668.313604693895</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>1577.811710331763</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>1558.804418733301</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>1652.481688223918</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>1890.745887204265</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>2257.44404751693</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.062870902635</v>
+        <v>2704.720372739246</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>3178.243416293701</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>3589.204695711755</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>3899.704287187858</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>4057.201491426973</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>3927.763604920453</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>3735.120604598309</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>3507.052757732724</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>3271.900649500981</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>3017.66329277278</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>2809.811792567247</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>2602.051493802293</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697991</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899656</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257033</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.59160627785</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519653</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6698,31 +6700,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058811</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285457</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6777,25 +6779,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415469</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6859,22 +6861,22 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.97243057225</v>
@@ -6886,10 +6888,10 @@
         <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386254</v>
@@ -6901,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1412.896600946711</v>
+        <v>1806.349924052246</v>
       </c>
       <c r="C35" t="n">
-        <v>1105.324852139684</v>
+        <v>1484.837040059908</v>
       </c>
       <c r="D35" t="n">
-        <v>1094.186419574882</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E35" t="n">
-        <v>769.7889351100235</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F35" t="n">
-        <v>420.1937984538015</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3276.705921269652</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3132.11894178726</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2939.979233194481</v>
+        <v>3119.52497783108</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.307113984296</v>
+        <v>3119.52497783108</v>
       </c>
       <c r="W35" t="n">
-        <v>2378.929226847568</v>
+        <v>2814.205955509039</v>
       </c>
       <c r="X35" t="n">
-        <v>2066.854236719873</v>
+        <v>2488.189830196033</v>
       </c>
       <c r="Y35" t="n">
-        <v>1738.105672877447</v>
+        <v>2145.500131168295</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,31 +7034,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
         <v>1109.759191501176</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1911.20465797453</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C37" t="n">
-        <v>1803.659243180008</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D37" t="n">
-        <v>1714.933371901058</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E37" t="n">
-        <v>1628.41104645205</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F37" t="n">
-        <v>1542.911867087525</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G37" t="n">
-        <v>1436.59979859563</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H37" t="n">
-        <v>1351.773379946873</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I37" t="n">
-        <v>1315.838470898604</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1421.13019519307</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>1685.286469989478</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>1162.360316885665</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>2299.337630107744</v>
       </c>
       <c r="R37" t="n">
-        <v>3297.166132500085</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S37" t="n">
-        <v>3166.871016460297</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T37" t="n">
-        <v>3006.495169163208</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U37" t="n">
-        <v>2778.783070422237</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V37" t="n">
-        <v>2585.489350349736</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W37" t="n">
-        <v>2357.462948446161</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X37" t="n">
-        <v>2190.864165681529</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>2031.462354671384</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1798.523189361401</v>
+        <v>1459.895634131917</v>
       </c>
       <c r="C38" t="n">
-        <v>1490.951440554375</v>
+        <v>1138.382750139579</v>
       </c>
       <c r="D38" t="n">
-        <v>1194.076510081009</v>
+        <v>827.5666844809016</v>
       </c>
       <c r="E38" t="n">
-        <v>869.6790256161507</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F38" t="n">
-        <v>520.0838889599287</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G38" t="n">
-        <v>302.7049486900308</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3056.683942306248</v>
       </c>
       <c r="V38" t="n">
-        <v>3055.933702398986</v>
+        <v>2773.070687910751</v>
       </c>
       <c r="W38" t="n">
-        <v>2764.555815262258</v>
+        <v>2467.75166558871</v>
       </c>
       <c r="X38" t="n">
-        <v>2452.480825134563</v>
+        <v>2141.735540275704</v>
       </c>
       <c r="Y38" t="n">
-        <v>2123.732261292137</v>
+        <v>1799.045841247966</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7263,16 +7265,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>661.8783035081091</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C40" t="n">
-        <v>554.3328887135876</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D40" t="n">
-        <v>465.6070174346374</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E40" t="n">
-        <v>379.0846919856298</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F40" t="n">
-        <v>293.585512621105</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G40" t="n">
-        <v>187.2734441292094</v>
+        <v>1241.423906001259</v>
       </c>
       <c r="H40" t="n">
-        <v>102.4470254804526</v>
+        <v>1142.65635216719</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J40" t="n">
-        <v>171.80384072665</v>
+        <v>1184.408325632951</v>
       </c>
       <c r="K40" t="n">
-        <v>435.9601155230574</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L40" t="n">
-        <v>781.1666493307497</v>
+        <v>1797.966077535137</v>
       </c>
       <c r="M40" t="n">
-        <v>1125.323694930299</v>
+        <v>2188.628508387092</v>
       </c>
       <c r="N40" t="n">
-        <v>1466.732071636163</v>
+        <v>2576.542270345363</v>
       </c>
       <c r="O40" t="n">
-        <v>1766.061670556577</v>
+        <v>2922.377254518183</v>
       </c>
       <c r="P40" t="n">
-        <v>1998.669170990236</v>
+        <v>3201.490140204249</v>
       </c>
       <c r="Q40" t="n">
-        <v>2076.27946714275</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>2047.839778033664</v>
+        <v>3283.224997314771</v>
       </c>
       <c r="S40" t="n">
-        <v>1917.544661993876</v>
+        <v>3138.988746089671</v>
       </c>
       <c r="T40" t="n">
-        <v>1757.168814696787</v>
+        <v>2964.671763607271</v>
       </c>
       <c r="U40" t="n">
-        <v>1529.456715955816</v>
+        <v>2723.018529680988</v>
       </c>
       <c r="V40" t="n">
-        <v>1336.162995883315</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W40" t="n">
-        <v>1108.13659397974</v>
+        <v>2273.816137334287</v>
       </c>
       <c r="X40" t="n">
-        <v>941.5378112151079</v>
+        <v>2093.276219384343</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.1360002049634</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1561.275024621033</v>
+        <v>1850.138062270041</v>
       </c>
       <c r="C41" t="n">
-        <v>1206.253642865934</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D41" t="n">
-        <v>861.9290794444955</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E41" t="n">
-        <v>861.9290794444955</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>464.8843098402003</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7409,22 +7411,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296685</v>
@@ -7436,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V41" t="n">
-        <v>3008.484069450912</v>
+        <v>2820.623417021136</v>
       </c>
       <c r="W41" t="n">
-        <v>2669.65654936611</v>
+        <v>2515.304394699096</v>
       </c>
       <c r="X41" t="n">
-        <v>2310.131926290342</v>
+        <v>2189.288269386089</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.933729499843</v>
+        <v>2189.288269386089</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.5121164321834</v>
@@ -7512,28 +7514,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>195.1563406821881</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>125.2984554742435</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>342.9493450182443</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L43" t="n">
-        <v>673.1728500618649</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M43" t="n">
-        <v>1030.993602256538</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.065685557528</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1699.058991073065</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>1945.330198101849</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2036.604200849489</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>1960.714878792329</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>1782.970129804467</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1575.144649559306</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1299.982917870261</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V43" t="n">
-        <v>1059.239564849687</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>783.7635299980384</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X43" t="n">
-        <v>569.7151142853334</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
-        <v>362.8636703271155</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.989376578413</v>
+        <v>1430.000155131663</v>
       </c>
       <c r="C44" t="n">
-        <v>811.9679948233133</v>
+        <v>1108.487271139325</v>
       </c>
       <c r="D44" t="n">
-        <v>467.6434314018749</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E44" t="n">
-        <v>467.6434314018749</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F44" t="n">
-        <v>467.6434314018749</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
         <v>66.5121164321834</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3229.256288321577</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3037.219675891111</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>2797.63033435026</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>2480.508582192001</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W44" t="n">
-        <v>2275.37090132349</v>
+        <v>2437.856186588457</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.846278247722</v>
+        <v>2111.84006127545</v>
       </c>
       <c r="Y44" t="n">
-        <v>1539.648081457223</v>
+        <v>1769.150362247712</v>
       </c>
     </row>
     <row r="45">
@@ -7737,16 +7739,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>470.3180723712285</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C46" t="n">
-        <v>315.3230246286336</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D46" t="n">
-        <v>220.2738178721524</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E46" t="n">
-        <v>220.2738178721524</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F46" t="n">
-        <v>220.2738178721524</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I46" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>125.2984554742433</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>342.9493450182439</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L46" t="n">
-        <v>673.1728500618642</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
-        <v>1030.993602256538</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.065685557526</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1699.058991073064</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>1945.330198101848</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2036.604200849487</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>1960.714878792327</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>1782.970129804465</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T46" t="n">
-        <v>1575.144649559303</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U46" t="n">
-        <v>1575.144649559303</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V46" t="n">
-        <v>1334.401296538728</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1058.925261687079</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X46" t="n">
-        <v>844.8768459743742</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y46" t="n">
-        <v>638.0254020161561</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>146.7328332134189</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>168.6634518925331</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>171.9674193880971</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>159.3575578920157</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>157.2757172780344</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>161.9809608673836</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>173.0964983554611</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>178.6476014810345</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>106.4009964605559</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>102.9119828535485</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>91.58741546282704</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>87.32580185261497</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>75.08286919803732</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>91.13039426149614</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>92.66852533301324</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>112.3698858023463</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>107.9232135872084</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>110.4987018127661</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>99.93439480590797</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>112.8238600877254</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>115.7948195266227</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>287.0017854473897</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>53.34379948258177</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9878,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>62.52018570663705</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>221.2853655744092</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>287.00178544739</v>
+        <v>117.9051702753179</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10352,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>287.0017854473918</v>
       </c>
       <c r="M32" t="n">
-        <v>287.00178544739</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.89845384305425</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.6163800404483</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>108.7462765696116</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.0357106656234</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>99.96043343226239</v>
       </c>
     </row>
     <row r="15">
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536691</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287772</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>15.07802795638383</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>52.28225787287769</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958313</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>77.33295353498536</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>282.8791329294773</v>
+        <v>210.0015899910201</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>233.8309039352689</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>305.3587092434179</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>134.9397143342029</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>48.41090133612424</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>143.1411096875686</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>190.2183115068504</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>166.6513331554033</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>368.1286462388026</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.731530346057639</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>280.8060405538613</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>27.77520593946684</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.38603795471671</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>190.116246306161</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>237.1934481254428</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>26.08731525766409</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>134.8137491847532</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>132.63223881311</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>131.6193241894721</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>152.2240844255691</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9532910808616</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>82.55069657637898</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>368.1286462388028</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>393.0743219082525</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>280.8060405538615</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
-        <v>27.77520593946707</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>132.3529408241283</v>
+        <v>127.3463093107767</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.71503449583713</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>132.6322388131103</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>131.6193241894723</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9532910808619</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>82.55069657637921</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>272.4101143721539</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>659456.6487603792</v>
+        <v>695855.2720704849</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>585597.1367176285</v>
+        <v>624858.955903448</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>585597.1367176285</v>
+        <v>624858.955903448</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656809.285350862</v>
+        <v>630103.2899178657</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656809.285350862</v>
+        <v>656809.2853508621</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656809.285350862</v>
+        <v>656809.2853508621</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656809.285350862</v>
+        <v>656809.2853508621</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>597132.6174976336</v>
+        <v>585597.1367176285</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>597132.6174976336</v>
+        <v>585597.1367176285</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>541976.7659257271</v>
+        <v>585597.1367176285</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>541976.7659257269</v>
+        <v>585597.1367176285</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170387</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
-        <v>819351.4683292387</v>
+        <v>819308.519697336</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898426</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="F2" t="n">
-        <v>764531.0098898431</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="G2" t="n">
+        <v>816880.1021376026</v>
+      </c>
+      <c r="H2" t="n">
+        <v>816880.1021376025</v>
+      </c>
+      <c r="I2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="J2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="K2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821041.7698642823</v>
+      </c>
+      <c r="M2" t="n">
         <v>764531.0098898429</v>
       </c>
-      <c r="H2" t="n">
-        <v>764531.0098898431</v>
-      </c>
-      <c r="I2" t="n">
-        <v>821041.7698642823</v>
-      </c>
-      <c r="J2" t="n">
-        <v>821041.7698642829</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642821</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642822</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779911.6509298492</v>
-      </c>
       <c r="N2" t="n">
-        <v>779911.6509298502</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="O2" t="n">
-        <v>706370.5155006404</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="P2" t="n">
-        <v>706370.5155006399</v>
+        <v>764531.0098898418</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>201068.9115716352</v>
+        <v>86125.75643942384</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621997</v>
+        <v>1080553.488276307</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902289</v>
+        <v>3582.495953363618</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487398</v>
+        <v>44338.97058237746</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>172641.8121718816</v>
+        <v>161600.4331051143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>379422.8644899274</v>
+        <v>421046.8477321482</v>
       </c>
       <c r="E4" t="n">
-        <v>60045.38930863548</v>
+        <v>60045.38930863549</v>
       </c>
       <c r="F4" t="n">
-        <v>60045.38930863555</v>
+        <v>60045.38930863547</v>
       </c>
       <c r="G4" t="n">
-        <v>60045.38930863555</v>
+        <v>89808.5560003375</v>
       </c>
       <c r="H4" t="n">
-        <v>60045.38930863554</v>
+        <v>89808.55600033753</v>
       </c>
       <c r="I4" t="n">
-        <v>88960.95519699581</v>
+        <v>91938.00846940247</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699575</v>
+        <v>88960.95519699584</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699583</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="M4" t="n">
-        <v>68754.62212628761</v>
+        <v>60045.38930863551</v>
       </c>
       <c r="N4" t="n">
-        <v>68754.62212628769</v>
+        <v>60045.3893086355</v>
       </c>
       <c r="O4" t="n">
-        <v>26767.39592751205</v>
+        <v>60045.38930863552</v>
       </c>
       <c r="P4" t="n">
-        <v>26767.39592751182</v>
+        <v>60045.38930863549</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>35819.92928277613</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178177</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480613</v>
+        <v>83023.74556647008</v>
       </c>
       <c r="J5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
-      <c r="L5" t="n">
-        <v>89377.9416748061</v>
-      </c>
       <c r="M5" t="n">
-        <v>79415.79044273682</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="N5" t="n">
-        <v>79415.79044273682</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="O5" t="n">
-        <v>75466.63768234836</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>75466.63768234834</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333248.7481680736</v>
+        <v>333248.7481680732</v>
       </c>
       <c r="C6" t="n">
-        <v>333248.7481680734</v>
+        <v>333248.7481680732</v>
       </c>
       <c r="D6" t="n">
-        <v>200113.8874365295</v>
+        <v>276315.9862429877</v>
       </c>
       <c r="E6" t="n">
-        <v>-346495.0494027742</v>
+        <v>-454323.361016881</v>
       </c>
       <c r="F6" t="n">
-        <v>626230.1272594258</v>
+        <v>626230.1272594256</v>
       </c>
       <c r="G6" t="n">
-        <v>626230.1272594257</v>
+        <v>607286.790760221</v>
       </c>
       <c r="H6" t="n">
-        <v>626230.1272594258</v>
+        <v>644866.900055095</v>
       </c>
       <c r="I6" t="n">
-        <v>594056.6133134575</v>
+        <v>642497.5198750471</v>
       </c>
       <c r="J6" t="n">
-        <v>605122.7636976071</v>
+        <v>598363.9024101042</v>
       </c>
       <c r="K6" t="n">
-        <v>642702.8729924802</v>
+        <v>642702.8729924816</v>
       </c>
       <c r="L6" t="n">
-        <v>642702.8729924803</v>
+        <v>605122.7636976063</v>
       </c>
       <c r="M6" t="n">
-        <v>459099.4261889432</v>
+        <v>464629.6941543114</v>
       </c>
       <c r="N6" t="n">
-        <v>631741.2383608257</v>
+        <v>626230.1272594256</v>
       </c>
       <c r="O6" t="n">
-        <v>604136.4818907799</v>
+        <v>626230.1272594256</v>
       </c>
       <c r="P6" t="n">
-        <v>604136.4818907797</v>
+        <v>626230.1272594245</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N2" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O2" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>100.5655634300979</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>844.873486394067</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,10 +26822,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859247</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>13.80172383345896</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>100.5655634300979</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673043</v>
+        <v>989.2111371632004</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>13.47203099177432</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>169.4629748145475</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859247</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>335.3344319590697</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>194.8897433025111</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>124.4735337248044</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>199.8074554087042</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>221.3260977895977</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.31331021407</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>137.1272063286629</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>110.1463369659957</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>81.949088767205</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>86.7275877760727</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>167.6652922252863</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>199.2928442345173</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>225.9271511050177</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.8096316211258</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>160.6148262609701</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>149.9968538809179</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>80.53789508723227</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.200181979380385</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>70.97664317374961</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>169.1393376603619</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>220.8562015599969</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>227.1707400051316</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3091376617273</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28108,7 +28110,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859011</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859136</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859269</v>
+        <v>86.47183148750443</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859018</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859269</v>
+        <v>86.47183148750496</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661858983</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661858886</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859269</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859269</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859269</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859269</v>
+        <v>91.48995205464284</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29295,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661858954</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859045</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859122</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859265</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L37" t="n">
-        <v>28.93609632242038</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.97513661859097</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y37" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y38" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L40" t="n">
-        <v>28.93609632242038</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.77686045205161</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
-        <v>13.80172383345914</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.80172383345914</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>13.80172383345892</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.80172383345892</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.4042836720807952</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>4.140370156697445</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>15.58614626789487</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>34.31307131326742</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>51.42639915244749</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>63.79899558189015</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>70.98867533525699</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>72.13734631855655</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>68.11725055430314</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>58.1364973998085</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>43.658088393415</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>25.39558421634527</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>9.212614177541131</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>1.769751774533682</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.03234269376646361</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.2163108345477577</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>2.089107270500713</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>7.44754408421008</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>20.43663020611075</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>34.92945612081051</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>46.96696431704714</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>54.80823206940334</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>56.25884288529598</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>51.4658501829483</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>41.305882081317</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>27.61188828367518</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>13.43024637657044</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>4.017878878551549</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>0.8718844603043389</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.01423097595708933</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.1813477373329634</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>1.612346246469439</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>5.453621046340391</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>12.82128502944051</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>21.06930984650247</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>26.96146269402985</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>28.42708213483897</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>27.75114965932522</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>25.63267836411741</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>21.93318452252494</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>15.18540007794478</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>8.154053716807606</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>3.16039647697537</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>0.7748494231499342</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.009891694763616196</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32093,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35741,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165891</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861302</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412311</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165641</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120765</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861328</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412324</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637031</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564863</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165891</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120765</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861328</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412324</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637003</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564863</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>825.9229012776166</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>304.1381042863012</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165894</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629123</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887909</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120766</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861328</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412325</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637032</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564825</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>518.1103000989692</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>729.3383664626282</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36761,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36770,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>742.5918998397221</v>
+        <v>573.4952846676498</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165892</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629123</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412293</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637031</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397237</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9229012776168</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412302</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>106.3552770651178</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>266.8245199963712</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>348.6934684926185</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120747</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>106.3552770651178</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>266.8245199963711</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>348.6934684926185</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120752</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.38014044652533</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8493833777787</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>333.5590960036572</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>361.4351032269429</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>358.6586700009992</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>316.1548540560989</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>248.7587949785695</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>92.19596237135276</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.3801404465251</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8493833777784</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>333.559096003657</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>361.4351032269427</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>358.6586700009989</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>316.1548540560987</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>248.7587949785693</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>92.19596237135255</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3624633.054471088</v>
+        <v>3618569.89105439</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881630.0194036076</v>
+        <v>881630.0194036078</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7388057.328656633</v>
+        <v>7388057.328656632</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>266.8782537240047</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>251.1546325535072</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1435,7 +1435,7 @@
         <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1548,7 +1548,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1584,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870209</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1609,7 +1609,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>120.0915249616414</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>239.3023686051986</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1785,7 +1785,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C17" t="n">
         <v>271.3226185338224</v>
@@ -1852,13 +1852,13 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F17" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>264.6891945433906</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H17" t="n">
         <v>200.6574911501353</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099069</v>
+        <v>15.23748855099068</v>
       </c>
       <c r="T17" t="n">
         <v>109.967696902435</v>
@@ -1903,10 +1903,10 @@
         <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329498</v>
+        <v>181.5197273600725</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X17" t="n">
         <v>275.7808274412839</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144269</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D19" t="n">
-        <v>62.14364153070792</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938403</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F19" t="n">
-        <v>51.4707747857461</v>
+        <v>51.47077478574607</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184308</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>2.402147172652938</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425675</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866429</v>
+        <v>160.6476912691854</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262955</v>
+        <v>236.5013105534182</v>
       </c>
       <c r="C20" t="n">
         <v>271.3226185338224</v>
@@ -2089,7 +2089,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F20" t="n">
         <v>312.9257725045263</v>
@@ -2098,7 +2098,7 @@
         <v>316.9714524162683</v>
       </c>
       <c r="H20" t="n">
-        <v>148.3752332772576</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.2374885509907</v>
+        <v>15.23748855099068</v>
       </c>
       <c r="T20" t="n">
         <v>109.967696902435</v>
@@ -2140,10 +2140,10 @@
         <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X20" t="n">
         <v>275.7808274412839</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>80.77498961112288</v>
+        <v>73.29654786144266</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102721</v>
+        <v>54.66519978102718</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938403</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>51.47077478574607</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184308</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713564</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172652967</v>
+        <v>2.402147172652938</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>131.759382151852</v>
+        <v>134.2197033343944</v>
       </c>
       <c r="Y22" t="n">
         <v>124.6343801149096</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262954</v>
       </c>
       <c r="C23" t="n">
         <v>271.3226185338224</v>
@@ -2326,7 +2326,7 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F23" t="n">
         <v>312.9257725045263</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.2374885509907</v>
+        <v>15.23748855099095</v>
       </c>
       <c r="T23" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217174</v>
+        <v>157.0448987217165</v>
       </c>
       <c r="V23" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X23" t="n">
         <v>275.7808274412839</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>52.483689409384</v>
       </c>
       <c r="F25" t="n">
-        <v>51.4707747857461</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184308</v>
+        <v>72.07553502184305</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713564</v>
+        <v>50.80474167713561</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>2.402147172652938</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>95.81875209425672</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U25" t="n">
         <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X25" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.0947012974519</v>
+        <v>127.0947012974522</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231194</v>
       </c>
       <c r="G26" t="n">
         <v>363.9465890348609</v>
@@ -2611,7 +2611,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2769,7 +2769,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448884</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
@@ -2845,7 +2845,7 @@
         <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210282</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851116</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2970,7 +2970,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3006,7 +3006,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3031,22 +3031,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3243,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3252,7 +3252,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3268,22 +3268,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>97.70631501107023</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>179.438447948434</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3480,7 +3480,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3489,7 +3489,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3505,22 +3505,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>29.59652421025123</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>22.49561442740577</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,25 +3663,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3717,7 +3717,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3726,7 +3726,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3742,19 +3742,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>151.6464219970117</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>48.19655695141635</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3918,7 +3918,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3954,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3979,19 +3979,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>136.7733342395119</v>
       </c>
       <c r="W44" t="n">
-        <v>174.9195227880437</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128501</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1570.289398767134</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="C11" t="n">
-        <v>1248.776514774796</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D11" t="n">
-        <v>937.9604491161188</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>937.9604491161188</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
         <v>684.268901082273</v>
@@ -5035,58 +5035,58 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>3167.077706941466</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2883.464452545968</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W11" t="n">
-        <v>2578.145430223928</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2252.129304910921</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="Y11" t="n">
-        <v>1909.439605883183</v>
+        <v>1966.533851893266</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5108,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052937</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254601</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611977</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F13" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998336</v>
@@ -5196,16 +5196,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5217,19 +5217,19 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179562</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874601</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1707.656676566316</v>
+        <v>1507.448363242303</v>
       </c>
       <c r="C14" t="n">
         <v>1386.143792573978</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5311,19 +5311,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2820.623417021137</v>
       </c>
       <c r="W14" t="n">
-        <v>2614.542573243047</v>
+        <v>2515.304394699096</v>
       </c>
       <c r="X14" t="n">
-        <v>2288.52644793004</v>
+        <v>2189.28826938609</v>
       </c>
       <c r="Y14" t="n">
-        <v>2046.806883682365</v>
+        <v>1846.598570358351</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5360,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,34 +5375,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
@@ -5433,16 +5433,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5451,10 +5451,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107745</v>
@@ -5466,22 +5466,22 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.964583048799</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.901332004534</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.53489929393</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E17" t="n">
-        <v>852.6459125918321</v>
+        <v>905.4562740795874</v>
       </c>
       <c r="F17" t="n">
-        <v>536.5592736983713</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G17" t="n">
         <v>269.1964509272696</v>
@@ -5551,16 +5551,16 @@
         <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.34110503534</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661372</v>
+        <v>2599.282077149127</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.905223296439</v>
+        <v>2320.715584784194</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216774</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>624.6713325264084</v>
+        <v>522.2180850649275</v>
       </c>
       <c r="C19" t="n">
-        <v>550.6344154946481</v>
+        <v>448.1811680331673</v>
       </c>
       <c r="D19" t="n">
-        <v>487.863060413125</v>
+        <v>298.0645286208316</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F19" t="n">
-        <v>382.8585511251147</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>68.93852771769144</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1740.677472568994</v>
+        <v>1830.507929811465</v>
       </c>
       <c r="T19" t="n">
-        <v>1613.810123034667</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U19" t="n">
-        <v>1324.70725616031</v>
+        <v>1509.436979298928</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.92203385057</v>
+        <v>1347.166584077529</v>
       </c>
       <c r="W19" t="n">
-        <v>970.4041297097557</v>
+        <v>1057.749414040568</v>
       </c>
       <c r="X19" t="n">
-        <v>837.313844707885</v>
+        <v>924.6591290386974</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.4205314605015</v>
+        <v>703.8665498951673</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.964583048799</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004534</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.53489929393</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E20" t="n">
-        <v>852.6459125918321</v>
+        <v>905.4562740795874</v>
       </c>
       <c r="F20" t="n">
-        <v>536.5592736983713</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G20" t="n">
-        <v>216.3860894395144</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5791,10 +5791,10 @@
         <v>2804.34110503534</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661372</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.905223296439</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y20" t="n">
         <v>1972.665157216774</v>
@@ -5834,25 +5834,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>529.7720666302613</v>
+        <v>427.3188191687809</v>
       </c>
       <c r="C22" t="n">
-        <v>448.1811680331675</v>
+        <v>353.2819021370207</v>
       </c>
       <c r="D22" t="n">
-        <v>392.9637945169783</v>
+        <v>298.0645286208316</v>
       </c>
       <c r="E22" t="n">
-        <v>339.9499668307319</v>
+        <v>245.0507009345851</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328214</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036871</v>
+        <v>120.256448603687</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769147</v>
+        <v>68.93852771769144</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1830.507929811465</v>
       </c>
       <c r="T22" t="n">
-        <v>1518.910857138519</v>
+        <v>1608.741314380991</v>
       </c>
       <c r="U22" t="n">
-        <v>1324.707256160309</v>
+        <v>1319.638447506635</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.922033850569</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W22" t="n">
-        <v>970.4041297097552</v>
+        <v>870.4360551599339</v>
       </c>
       <c r="X22" t="n">
-        <v>837.3138447078845</v>
+        <v>734.8605972464042</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.420531460501</v>
+        <v>608.9672839990207</v>
       </c>
     </row>
     <row r="23">
@@ -5974,49 +5974,49 @@
         <v>1197.423023261028</v>
       </c>
       <c r="E23" t="n">
-        <v>906.5340365589298</v>
+        <v>906.5340365589299</v>
       </c>
       <c r="F23" t="n">
-        <v>590.4473976654688</v>
+        <v>590.447397665469</v>
       </c>
       <c r="G23" t="n">
         <v>270.2742134066115</v>
       </c>
       <c r="H23" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="I23" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J23" t="n">
         <v>256.4690098705507</v>
       </c>
       <c r="K23" t="n">
-        <v>590.2883835603971</v>
+        <v>643.0987450481528</v>
       </c>
       <c r="L23" t="n">
-        <v>1041.322596808806</v>
+        <v>1094.132958296561</v>
       </c>
       <c r="M23" t="n">
-        <v>1574.85450148073</v>
+        <v>1627.664862968486</v>
       </c>
       <c r="N23" t="n">
-        <v>2121.633318539512</v>
+        <v>2174.443680027268</v>
       </c>
       <c r="O23" t="n">
-        <v>2624.605789418849</v>
+        <v>2677.416150906605</v>
       </c>
       <c r="P23" t="n">
-        <v>3019.380155776027</v>
+        <v>3072.190517263783</v>
       </c>
       <c r="Q23" t="n">
         <v>3320.476879019465</v>
       </c>
       <c r="R23" t="n">
-        <v>3379.493945576268</v>
+        <v>3379.493945576267</v>
       </c>
       <c r="S23" t="n">
-        <v>3364.10254299951</v>
+        <v>3364.102542999509</v>
       </c>
       <c r="T23" t="n">
         <v>3253.024061279878</v>
@@ -6065,10 +6065,10 @@
         <v>86.59717050998742</v>
       </c>
       <c r="I24" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J24" t="n">
-        <v>161.2671484021427</v>
+        <v>161.2671484021426</v>
       </c>
       <c r="K24" t="n">
         <v>399.5313473824897</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713.094379336563</v>
+        <v>713.0943793365628</v>
       </c>
       <c r="C25" t="n">
-        <v>544.1581964086561</v>
+        <v>544.158196408656</v>
       </c>
       <c r="D25" t="n">
-        <v>488.9408228924669</v>
+        <v>394.0415569963202</v>
       </c>
       <c r="E25" t="n">
-        <v>341.0277293100738</v>
+        <v>341.0277293100737</v>
       </c>
       <c r="F25" t="n">
-        <v>289.0370477083101</v>
+        <v>194.1377818121634</v>
       </c>
       <c r="G25" t="n">
-        <v>216.2334769791756</v>
+        <v>121.3342110830289</v>
       </c>
       <c r="H25" t="n">
-        <v>164.91555609318</v>
+        <v>70.01629019703337</v>
       </c>
       <c r="I25" t="n">
-        <v>67.58987891152536</v>
+        <v>67.58987891152535</v>
       </c>
       <c r="J25" t="n">
         <v>112.7125113584609</v>
@@ -6174,25 +6174,25 @@
         <v>1928.372310567834</v>
       </c>
       <c r="S25" t="n">
-        <v>1736.68642639466</v>
+        <v>1831.585692290807</v>
       </c>
       <c r="T25" t="n">
-        <v>1609.819076860333</v>
+        <v>1704.71834275648</v>
       </c>
       <c r="U25" t="n">
-        <v>1415.615475882123</v>
+        <v>1510.51474177827</v>
       </c>
       <c r="V25" t="n">
-        <v>1255.830253572383</v>
+        <v>1350.72951946853</v>
       </c>
       <c r="W25" t="n">
-        <v>1061.312349431569</v>
+        <v>1156.211615327716</v>
       </c>
       <c r="X25" t="n">
-        <v>928.2220644296984</v>
+        <v>1023.121330325845</v>
       </c>
       <c r="Y25" t="n">
-        <v>799.8435782706561</v>
+        <v>894.7428441668026</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467786</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1496.733761127194</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N26" t="n">
-        <v>2568.163811692541</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O26" t="n">
-        <v>3290.208794490542</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6366,13 +6366,13 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643395</v>
@@ -6381,22 +6381,22 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
         <v>1910.743863481264</v>
@@ -6405,10 +6405,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6451,64 +6451,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386887</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2433.836156782225</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>2259.383127501098</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>2110.448717839847</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>1951.211262834391</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>1804.676704861276</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>1668.313604693895</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>1577.811710331763</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>1558.804418733301</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>1652.481688223918</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>1890.745887204265</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>2257.44404751693</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
-        <v>2704.720372739246</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>3178.243416293701</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
-        <v>3589.204695711755</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>3899.704287187858</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>4057.345844834458</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>4057.201491426973</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>3927.763604920453</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>3735.120604598309</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>3507.052757732724</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>3271.900649500981</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>3017.66329277278</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>2809.811792567247</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>2602.051493802293</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6651,7 +6651,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6666,7 +6666,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6688,61 +6688,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386887</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6800,28 +6800,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6864,7 +6864,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6879,22 +6879,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6903,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1806.349924052246</v>
+        <v>1949.589732305505</v>
       </c>
       <c r="C35" t="n">
-        <v>1484.837040059908</v>
+        <v>1628.076848313167</v>
       </c>
       <c r="D35" t="n">
-        <v>1386.143792573978</v>
+        <v>1317.26078265449</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>978.9221630043186</v>
       </c>
       <c r="F35" t="n">
-        <v>684.268901082273</v>
+        <v>615.3858911627843</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>247.7630739558541</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6955,34 +6955,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.52497783108</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V35" t="n">
-        <v>3119.52497783108</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="W35" t="n">
-        <v>2814.205955509039</v>
+        <v>2957.445763762298</v>
       </c>
       <c r="X35" t="n">
-        <v>2488.189830196033</v>
+        <v>2631.429638449292</v>
       </c>
       <c r="Y35" t="n">
-        <v>2145.500131168295</v>
+        <v>2288.739939421554</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,34 +7034,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L37" t="n">
         <v>771.6978860337115</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885665</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107744</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1459.895634131917</v>
+        <v>1791.0616176378</v>
       </c>
       <c r="C38" t="n">
-        <v>1138.382750139579</v>
+        <v>1469.548733645461</v>
       </c>
       <c r="D38" t="n">
-        <v>827.5666844809016</v>
+        <v>1158.732667986784</v>
       </c>
       <c r="E38" t="n">
-        <v>797.6712054806478</v>
+        <v>820.3940483366133</v>
       </c>
       <c r="F38" t="n">
-        <v>434.1349336391136</v>
+        <v>456.8577764950791</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>89.23495928814884</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7192,34 +7192,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
         <v>3262.764786084339</v>
       </c>
       <c r="T38" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U38" t="n">
-        <v>3056.683942306248</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V38" t="n">
-        <v>2773.070687910751</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="W38" t="n">
-        <v>2467.75166558871</v>
+        <v>2798.917649094593</v>
       </c>
       <c r="X38" t="n">
-        <v>2141.735540275704</v>
+        <v>2472.901523781587</v>
       </c>
       <c r="Y38" t="n">
-        <v>1799.045841247966</v>
+        <v>2130.211824753848</v>
       </c>
     </row>
     <row r="39">
@@ -7244,28 +7244,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1785.73444130672</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C40" t="n">
-        <v>1664.247891326886</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D40" t="n">
-        <v>1561.580884862624</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E40" t="n">
-        <v>1461.117424228304</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F40" t="n">
-        <v>1361.677109678467</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>1241.423906001259</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>1142.65635216719</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>1092.780307933609</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1184.408325632951</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>1434.900893834234</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.966077535137</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
-        <v>2188.628508387092</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>2576.542270345363</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>2922.377254518183</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>3201.490140204249</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R40" t="n">
-        <v>3283.224997314771</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S40" t="n">
-        <v>3138.988746089671</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T40" t="n">
-        <v>2964.671763607271</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>2723.018529680988</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
-        <v>2515.783674423174</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>2273.816137334287</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>2093.276219384343</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>1919.933273188886</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1850.138062270041</v>
+        <v>1728.817513434839</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232655</v>
+        <v>1407.304629442501</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.143792573978</v>
+        <v>1096.488563783824</v>
       </c>
       <c r="E41" t="n">
         <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G41" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2820.623417021136</v>
+        <v>3041.992567213673</v>
       </c>
       <c r="W41" t="n">
-        <v>2515.304394699096</v>
+        <v>2736.673544891632</v>
       </c>
       <c r="X41" t="n">
-        <v>2189.288269386089</v>
+        <v>2410.657419578626</v>
       </c>
       <c r="Y41" t="n">
-        <v>2189.288269386089</v>
+        <v>2067.967720550888</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,31 +7508,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7545,61 +7545,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H43" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315245</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328075</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M43" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N43" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U43" t="n">
         <v>1696.750338179562</v>
@@ -7614,7 +7614,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1430.000155131663</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="C44" t="n">
-        <v>1108.487271139325</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D44" t="n">
-        <v>797.6712054806478</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E44" t="n">
         <v>797.6712054806478</v>
@@ -7639,16 +7639,16 @@
         <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810555</v>
@@ -7672,7 +7672,7 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
         <v>3262.764786084339</v>
@@ -7684,16 +7684,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>2614.542573243046</v>
+        <v>2760.00094456833</v>
       </c>
       <c r="W44" t="n">
-        <v>2437.856186588457</v>
+        <v>2454.681922246289</v>
       </c>
       <c r="X44" t="n">
-        <v>2111.84006127545</v>
+        <v>2128.665796933283</v>
       </c>
       <c r="Y44" t="n">
-        <v>1769.150362247712</v>
+        <v>1785.976097905544</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7739,40 +7739,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
         <v>771.6978860337113</v>
@@ -7833,25 +7833,25 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.7328332134189</v>
+        <v>146.7328332134183</v>
       </c>
       <c r="K8" t="n">
-        <v>168.6634518925331</v>
+        <v>168.6634518925323</v>
       </c>
       <c r="L8" t="n">
-        <v>171.9674193880971</v>
+        <v>171.9674193880961</v>
       </c>
       <c r="M8" t="n">
-        <v>159.3575578920157</v>
+        <v>159.3575578920147</v>
       </c>
       <c r="N8" t="n">
-        <v>157.2757172780344</v>
+        <v>157.2757172780333</v>
       </c>
       <c r="O8" t="n">
-        <v>161.9809608673836</v>
+        <v>161.9809608673825</v>
       </c>
       <c r="P8" t="n">
-        <v>173.0964983554611</v>
+        <v>173.0964983554601</v>
       </c>
       <c r="Q8" t="n">
-        <v>178.6476014810345</v>
+        <v>178.6476014810338</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>106.4009964605559</v>
+        <v>106.4009964605556</v>
       </c>
       <c r="K9" t="n">
-        <v>102.9119828535485</v>
+        <v>102.911982853548</v>
       </c>
       <c r="L9" t="n">
-        <v>91.58741546282704</v>
+        <v>91.58741546282633</v>
       </c>
       <c r="M9" t="n">
-        <v>87.32580185261497</v>
+        <v>87.32580185261413</v>
       </c>
       <c r="N9" t="n">
-        <v>75.08286919803732</v>
+        <v>75.08286919803646</v>
       </c>
       <c r="O9" t="n">
-        <v>91.13039426149614</v>
+        <v>91.13039426149535</v>
       </c>
       <c r="P9" t="n">
-        <v>92.66852533301324</v>
+        <v>92.66852533301261</v>
       </c>
       <c r="Q9" t="n">
-        <v>112.3698858023463</v>
+        <v>112.3698858023459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>107.9232135872084</v>
+        <v>107.923213587208</v>
       </c>
       <c r="M10" t="n">
-        <v>110.4987018127661</v>
+        <v>110.4987018127656</v>
       </c>
       <c r="N10" t="n">
-        <v>99.93439480590797</v>
+        <v>99.93439480590754</v>
       </c>
       <c r="O10" t="n">
-        <v>112.8238600877254</v>
+        <v>112.823860087725</v>
       </c>
       <c r="P10" t="n">
-        <v>115.7948195266227</v>
+        <v>115.7948195266223</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.34379948258146</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.34379948258177</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>277.2206841544152</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>221.2853655744092</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>117.9051702753179</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>306.6874953089263</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>287.0017854473918</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>68.88045132088331</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>108.7462765696116</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>198.2062301907736</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020903</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.96043343226239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>52.28225787287772</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>52.28225787287721</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>52.28225787287718</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>52.28225787287769</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>210.0015899910201</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>68.19417982029393</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958323</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
         <v>280.7771218515423</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>305.3587092434179</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>225.1370133413221</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>166.6513331554033</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>286.7586765022529</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>144.0037876120304</v>
       </c>
       <c r="W44" t="n">
-        <v>127.3463093107767</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>695855.2720704849</v>
+        <v>695855.2720704845</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>585597.1367176285</v>
+        <v>585597.1367176283</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>624858.955903448</v>
+        <v>624858.9559034482</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>585597.1367176285</v>
+        <v>585597.1367176283</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>585597.1367176285</v>
+        <v>585597.1367176283</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170384</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170384</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
         <v>819308.519697336</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898428</v>
+        <v>764531.0098898426</v>
       </c>
       <c r="F2" t="n">
-        <v>764531.0098898428</v>
+        <v>764531.0098898427</v>
       </c>
       <c r="G2" t="n">
-        <v>816880.1021376026</v>
+        <v>816880.1021376024</v>
       </c>
       <c r="H2" t="n">
         <v>816880.1021376025</v>
       </c>
       <c r="I2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="J2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="J2" t="n">
-        <v>821041.7698642836</v>
-      </c>
       <c r="K2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642823</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>764531.0098898429</v>
+        <v>764531.0098898428</v>
       </c>
       <c r="N2" t="n">
-        <v>764531.0098898428</v>
+        <v>764531.0098898427</v>
       </c>
       <c r="O2" t="n">
         <v>764531.0098898428</v>
       </c>
       <c r="P2" t="n">
-        <v>764531.0098898418</v>
+        <v>764531.0098898431</v>
       </c>
     </row>
     <row r="3">
@@ -26371,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>86125.75643942384</v>
+        <v>86125.75643942517</v>
       </c>
       <c r="E3" t="n">
-        <v>1080553.488276307</v>
+        <v>1080553.488276305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3582.495953363618</v>
+        <v>3582.495953363588</v>
       </c>
       <c r="J3" t="n">
-        <v>44338.97058237746</v>
+        <v>44338.97058237749</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051143</v>
+        <v>161600.4331051142</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>421046.8477321482</v>
+        <v>421046.8477321478</v>
       </c>
       <c r="E4" t="n">
         <v>60045.38930863549</v>
       </c>
       <c r="F4" t="n">
-        <v>60045.38930863547</v>
+        <v>60045.38930863552</v>
       </c>
       <c r="G4" t="n">
-        <v>89808.5560003375</v>
+        <v>89808.55600033753</v>
       </c>
       <c r="H4" t="n">
         <v>89808.55600033753</v>
       </c>
       <c r="I4" t="n">
-        <v>91938.00846940247</v>
+        <v>91938.0084694025</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699584</v>
+        <v>88960.95519699583</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699583</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="L4" t="n">
         <v>88960.95519699587</v>
       </c>
       <c r="M4" t="n">
+        <v>60045.38930863547</v>
+      </c>
+      <c r="N4" t="n">
+        <v>60045.38930863545</v>
+      </c>
+      <c r="O4" t="n">
+        <v>60045.38930863547</v>
+      </c>
+      <c r="P4" t="n">
         <v>60045.38930863551</v>
-      </c>
-      <c r="N4" t="n">
-        <v>60045.3893086355</v>
-      </c>
-      <c r="O4" t="n">
-        <v>60045.38930863552</v>
-      </c>
-      <c r="P4" t="n">
-        <v>60045.38930863549</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35819.92928277613</v>
+        <v>35819.92928277617</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
         <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217021</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
         <v>83023.74556647008</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26508,7 +26508,7 @@
         <v>78255.49332178175</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
         <v>78255.49332178175</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333248.7481680732</v>
+        <v>333204.6123893919</v>
       </c>
       <c r="C6" t="n">
-        <v>333248.7481680732</v>
+        <v>333204.6123893922</v>
       </c>
       <c r="D6" t="n">
-        <v>276315.9862429877</v>
+        <v>276272.6549888132</v>
       </c>
       <c r="E6" t="n">
-        <v>-454323.361016881</v>
+        <v>-455736.1300162406</v>
       </c>
       <c r="F6" t="n">
-        <v>626230.1272594256</v>
+        <v>624817.3582600645</v>
       </c>
       <c r="G6" t="n">
-        <v>607286.790760221</v>
+        <v>607182.7490670535</v>
       </c>
       <c r="H6" t="n">
-        <v>644866.900055095</v>
+        <v>644762.8583619277</v>
       </c>
       <c r="I6" t="n">
-        <v>642497.5198750471</v>
+        <v>642497.5198750468</v>
       </c>
       <c r="J6" t="n">
-        <v>598363.9024101042</v>
+        <v>598363.9024101037</v>
       </c>
       <c r="K6" t="n">
-        <v>642702.8729924816</v>
+        <v>642702.8729924813</v>
       </c>
       <c r="L6" t="n">
-        <v>605122.7636976063</v>
+        <v>605122.7636976072</v>
       </c>
       <c r="M6" t="n">
-        <v>464629.6941543114</v>
+        <v>463216.9251549503</v>
       </c>
       <c r="N6" t="n">
-        <v>626230.1272594256</v>
+        <v>624817.3582600645</v>
       </c>
       <c r="O6" t="n">
-        <v>626230.1272594256</v>
+        <v>624817.3582600646</v>
       </c>
       <c r="P6" t="n">
-        <v>626230.1272594245</v>
+        <v>624817.3582600649</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26715,19 +26715,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.5655634300979</v>
+        <v>100.5655634300994</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26810,28 +26810,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>844.873486394067</v>
+        <v>844.8734863940668</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.5655634300979</v>
+        <v>100.5655634300994</v>
       </c>
       <c r="E3" t="n">
-        <v>989.2111371632004</v>
+        <v>989.2111371631986</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.47203099177432</v>
+        <v>13.4720309917742</v>
       </c>
       <c r="J4" t="n">
-        <v>169.4629748145475</v>
+        <v>169.4629748145477</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959704</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>335.3344319590697</v>
       </c>
       <c r="I8" t="n">
-        <v>194.8897433025111</v>
+        <v>194.8897433025108</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>124.4735337248044</v>
+        <v>124.473533724804</v>
       </c>
       <c r="S8" t="n">
-        <v>199.8074554087042</v>
+        <v>199.8074554087041</v>
       </c>
       <c r="T8" t="n">
-        <v>221.3260977895977</v>
+        <v>221.3260977895976</v>
       </c>
       <c r="U8" t="n">
         <v>251.31331021407</v>
@@ -27952,7 +27952,7 @@
         <v>110.1463369659957</v>
       </c>
       <c r="I9" t="n">
-        <v>81.949088767205</v>
+        <v>81.94908876720488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>86.7275877760727</v>
+        <v>86.72758777607248</v>
       </c>
       <c r="S9" t="n">
-        <v>167.6652922252863</v>
+        <v>167.6652922252862</v>
       </c>
       <c r="T9" t="n">
-        <v>199.2928442345173</v>
+        <v>199.2928442345172</v>
       </c>
       <c r="U9" t="n">
         <v>225.9271511050177</v>
@@ -28031,13 +28031,13 @@
         <v>160.6148262609701</v>
       </c>
       <c r="I10" t="n">
-        <v>149.9968538809179</v>
+        <v>149.9968538809178</v>
       </c>
       <c r="J10" t="n">
-        <v>80.53789508723227</v>
+        <v>80.53789508723207</v>
       </c>
       <c r="K10" t="n">
-        <v>1.200181979380385</v>
+        <v>1.200181979380062</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.97664317374961</v>
+        <v>70.97664317374937</v>
       </c>
       <c r="R10" t="n">
-        <v>169.1393376603619</v>
+        <v>169.1393376603617</v>
       </c>
       <c r="S10" t="n">
-        <v>220.8562015599969</v>
+        <v>220.8562015599968</v>
       </c>
       <c r="T10" t="n">
-        <v>227.1707400051316</v>
+        <v>227.1707400051315</v>
       </c>
       <c r="U10" t="n">
         <v>286.3091376617273</v>
@@ -28110,7 +28110,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859136</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
         <v>46.97513661859259</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D19" t="n">
-        <v>86.47183148750443</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718514</v>
+        <v>91.48995205464257</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="21">
@@ -28961,25 +28961,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>86.47183148750496</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718514</v>
+        <v>91.48995205464274</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.95027323718517</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.48995205464284</v>
+        <v>91.48995205464261</v>
       </c>
     </row>
     <row r="26">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859122</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859097</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859142</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4042836720807952</v>
+        <v>0.4042836720808014</v>
       </c>
       <c r="H8" t="n">
-        <v>4.140370156697445</v>
+        <v>4.140370156697509</v>
       </c>
       <c r="I8" t="n">
-        <v>15.58614626789487</v>
+        <v>15.58614626789511</v>
       </c>
       <c r="J8" t="n">
-        <v>34.31307131326742</v>
+        <v>34.31307131326795</v>
       </c>
       <c r="K8" t="n">
-        <v>51.42639915244749</v>
+        <v>51.42639915244828</v>
       </c>
       <c r="L8" t="n">
-        <v>63.79899558189015</v>
+        <v>63.79899558189113</v>
       </c>
       <c r="M8" t="n">
-        <v>70.98867533525699</v>
+        <v>70.98867533525808</v>
       </c>
       <c r="N8" t="n">
-        <v>72.13734631855655</v>
+        <v>72.13734631855766</v>
       </c>
       <c r="O8" t="n">
-        <v>68.11725055430314</v>
+        <v>68.11725055430418</v>
       </c>
       <c r="P8" t="n">
-        <v>58.1364973998085</v>
+        <v>58.13649739980939</v>
       </c>
       <c r="Q8" t="n">
-        <v>43.658088393415</v>
+        <v>43.65808839341567</v>
       </c>
       <c r="R8" t="n">
-        <v>25.39558421634527</v>
+        <v>25.39558421634566</v>
       </c>
       <c r="S8" t="n">
-        <v>9.212614177541131</v>
+        <v>9.212614177541271</v>
       </c>
       <c r="T8" t="n">
-        <v>1.769751774533682</v>
+        <v>1.769751774533709</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03234269376646361</v>
+        <v>0.03234269376646411</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2163108345477577</v>
+        <v>0.216310834547761</v>
       </c>
       <c r="H9" t="n">
-        <v>2.089107270500713</v>
+        <v>2.089107270500745</v>
       </c>
       <c r="I9" t="n">
-        <v>7.44754408421008</v>
+        <v>7.447544084210195</v>
       </c>
       <c r="J9" t="n">
-        <v>20.43663020611075</v>
+        <v>20.43663020611106</v>
       </c>
       <c r="K9" t="n">
-        <v>34.92945612081051</v>
+        <v>34.92945612081105</v>
       </c>
       <c r="L9" t="n">
-        <v>46.96696431704714</v>
+        <v>46.96696431704786</v>
       </c>
       <c r="M9" t="n">
-        <v>54.80823206940334</v>
+        <v>54.80823206940418</v>
       </c>
       <c r="N9" t="n">
-        <v>56.25884288529598</v>
+        <v>56.25884288529685</v>
       </c>
       <c r="O9" t="n">
-        <v>51.4658501829483</v>
+        <v>51.46585018294909</v>
       </c>
       <c r="P9" t="n">
-        <v>41.305882081317</v>
+        <v>41.30588208131763</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.61188828367518</v>
+        <v>27.6118882836756</v>
       </c>
       <c r="R9" t="n">
-        <v>13.43024637657044</v>
+        <v>13.43024637657064</v>
       </c>
       <c r="S9" t="n">
-        <v>4.017878878551549</v>
+        <v>4.017878878551612</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8718844603043389</v>
+        <v>0.8718844603043523</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01423097595708933</v>
+        <v>0.01423097595708955</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1813477373329634</v>
+        <v>0.1813477373329662</v>
       </c>
       <c r="H10" t="n">
-        <v>1.612346246469439</v>
+        <v>1.612346246469464</v>
       </c>
       <c r="I10" t="n">
-        <v>5.453621046340391</v>
+        <v>5.453621046340476</v>
       </c>
       <c r="J10" t="n">
-        <v>12.82128502944051</v>
+        <v>12.82128502944071</v>
       </c>
       <c r="K10" t="n">
-        <v>21.06930984650247</v>
+        <v>21.06930984650279</v>
       </c>
       <c r="L10" t="n">
-        <v>26.96146269402985</v>
+        <v>26.96146269403027</v>
       </c>
       <c r="M10" t="n">
-        <v>28.42708213483897</v>
+        <v>28.42708213483941</v>
       </c>
       <c r="N10" t="n">
-        <v>27.75114965932522</v>
+        <v>27.75114965932565</v>
       </c>
       <c r="O10" t="n">
-        <v>25.63267836411741</v>
+        <v>25.63267836411781</v>
       </c>
       <c r="P10" t="n">
-        <v>21.93318452252494</v>
+        <v>21.93318452252528</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.18540007794478</v>
+        <v>15.18540007794501</v>
       </c>
       <c r="R10" t="n">
-        <v>8.154053716807606</v>
+        <v>8.154053716807731</v>
       </c>
       <c r="S10" t="n">
-        <v>3.16039647697537</v>
+        <v>3.160396476975418</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7748494231499342</v>
+        <v>0.7748494231499462</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009891694763616196</v>
+        <v>0.009891694763616348</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003809</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35816,10 +35816,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412311</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36360,7 +36360,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>390.5350860379818</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36378,7 +36378,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>304.1381042863012</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>732.8107985467472</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>729.3383664626282</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36676,7 +36676,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36758,7 +36758,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>573.4952846676498</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>858.9893307218375</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36995,7 +36995,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>742.5918998397237</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37472,7 +37472,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120747</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861327</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37709,13 +37709,13 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120752</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165765</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38183,7 +38183,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38192,7 +38192,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
